--- a/src/main/resources/data.xlsx
+++ b/src/main/resources/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ae_hu\Documents\GitHub\opt01\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D054B7C-5511-4CC8-96F3-E7537C0F6FDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E0F5FC-2CB0-40DE-B07F-F2F59C368B7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25800" yWindow="160" windowWidth="8440" windowHeight="13480" activeTab="1" xr2:uid="{CBAB1C0D-D8C7-4D35-B05F-CB85A715296F}"/>
+    <workbookView xWindow="16970" yWindow="380" windowWidth="15560" windowHeight="13480" activeTab="2" xr2:uid="{CBAB1C0D-D8C7-4D35-B05F-CB85A715296F}"/>
   </bookViews>
   <sheets>
     <sheet name="Needs" sheetId="1" r:id="rId1"/>
@@ -266,7 +266,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E70209DD-F877-43C3-A8F9-B6E3AD5F2871}" name="Table2" displayName="Table2" ref="A1:C26" totalsRowShown="0">
   <autoFilter ref="A1:C26" xr:uid="{4C46468C-02BD-45DC-BAF7-520BDD487ED6}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C26">
-    <sortCondition ref="B1:B26"/>
+    <sortCondition ref="A1:A26"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{B0B46648-06A9-47A9-B194-CAA71BC74E28}" name="Inversion"/>
@@ -589,7 +589,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A17"/>
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -782,7 +782,7 @@
         <v>429</v>
       </c>
       <c r="C17">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -797,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88F849BD-B211-486E-9F5C-9224B027940A}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -820,57 +820,57 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
-        <v>4.4999999999999998E-2</v>
+      <c r="C2" s="3">
+        <v>0.02</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C3" s="3">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B4">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4">
-        <v>4.4999999999999998E-2</v>
+        <v>60</v>
+      </c>
+      <c r="C4" s="3">
+        <v>8.5999999999999993E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B5">
-        <v>14</v>
-      </c>
-      <c r="C5" s="4">
-        <v>4.7E-2</v>
+        <v>90</v>
+      </c>
+      <c r="C5" s="3">
+        <v>9.1999999999999998E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B6">
-        <v>28</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0.05</v>
+        <v>180</v>
+      </c>
+      <c r="C6" s="3">
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -878,43 +878,43 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>28</v>
+        <v>270</v>
       </c>
       <c r="C7" s="3">
-        <v>0.08</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B8">
-        <v>60</v>
-      </c>
-      <c r="C8" s="4">
-        <v>5.2999999999999999E-2</v>
+        <v>360</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.11</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B9">
-        <v>60</v>
-      </c>
-      <c r="C9" s="3">
-        <v>8.5999999999999993E-2</v>
+        <v>7</v>
+      </c>
+      <c r="C9" s="4">
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B10">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="C10" s="4">
-        <v>5.7500000000000002E-2</v>
+        <v>4.7E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -922,21 +922,21 @@
         <v>25</v>
       </c>
       <c r="B11">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="C11" s="4">
-        <v>5.6000000000000001E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B12">
-        <v>90</v>
-      </c>
-      <c r="C12" s="3">
-        <v>9.1999999999999998E-2</v>
+        <v>60</v>
+      </c>
+      <c r="C12" s="4">
+        <v>5.2999999999999999E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -944,10 +944,10 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C13" s="4">
-        <v>6.2E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -955,21 +955,21 @@
         <v>25</v>
       </c>
       <c r="B14">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="C14" s="4">
-        <v>6.6000000000000003E-2</v>
+        <v>6.2E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="C15" s="4">
-        <v>0.06</v>
+        <v>6.6000000000000003E-2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -985,13 +985,13 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
-        <v>180</v>
-      </c>
-      <c r="C17" s="3">
-        <v>9.8000000000000004E-2</v>
+        <v>210</v>
+      </c>
+      <c r="C17" s="4">
+        <v>7.2999999999999995E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -999,10 +999,10 @@
         <v>25</v>
       </c>
       <c r="B18">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="C18" s="4">
-        <v>7.2999999999999995E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -1010,10 +1010,10 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="C19" s="4">
-        <v>7.6999999999999999E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -1021,21 +1021,21 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="C20" s="4">
-        <v>8.1000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>270</v>
-      </c>
-      <c r="C21" s="3">
-        <v>0.104</v>
+        <v>330</v>
+      </c>
+      <c r="C21" s="4">
+        <v>9.0999999999999998E-2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -1043,21 +1043,21 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="C22" s="4">
-        <v>8.5999999999999993E-2</v>
+        <v>0.10299999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B23">
-        <v>330</v>
+        <v>1</v>
       </c>
       <c r="C23" s="4">
-        <v>9.0999999999999998E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -1065,32 +1065,32 @@
         <v>19</v>
       </c>
       <c r="B24">
-        <v>360</v>
+        <v>90</v>
       </c>
       <c r="C24" s="4">
-        <v>0.1</v>
+        <v>5.7500000000000002E-2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B25">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="C25" s="4">
-        <v>0.10299999999999999</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B26">
         <v>360</v>
       </c>
-      <c r="C26" s="3">
-        <v>0.11</v>
+      <c r="C26" s="4">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -1105,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B94821-9FC4-4078-94AE-574E6CFCD208}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1135,7 +1135,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="6">
-        <v>100000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1146,7 +1146,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="6">
-        <v>100000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -1168,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="6">
-        <v>100000</v>
+        <v>120000</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/data.xlsx
+++ b/src/main/resources/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ae_hu\Documents\GitHub\opt01\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E0F5FC-2CB0-40DE-B07F-F2F59C368B7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FA97D4-1899-4792-8A6B-3DB2BB19B3B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16970" yWindow="380" windowWidth="15560" windowHeight="13480" activeTab="2" xr2:uid="{CBAB1C0D-D8C7-4D35-B05F-CB85A715296F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="14020" xr2:uid="{CBAB1C0D-D8C7-4D35-B05F-CB85A715296F}"/>
   </bookViews>
   <sheets>
     <sheet name="Needs" sheetId="1" r:id="rId1"/>
@@ -35,14 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>Credit Card Payments</t>
   </si>
   <si>
-    <t>Monthly Expenses</t>
-  </si>
-  <si>
     <t>Expense</t>
   </si>
   <si>
@@ -52,48 +49,24 @@
     <t>Term</t>
   </si>
   <si>
-    <t>Emergency Fund [1/3]</t>
-  </si>
-  <si>
-    <t>Emergency Fund [2/3]</t>
-  </si>
-  <si>
-    <t>Emergency Fund [3/3]</t>
-  </si>
-  <si>
     <t>Insurance</t>
   </si>
   <si>
-    <t>CC Annuity</t>
-  </si>
-  <si>
     <t>Christmas Gifts</t>
   </si>
   <si>
-    <t>Other True Expenses</t>
-  </si>
-  <si>
     <t>Taxes</t>
   </si>
   <si>
-    <t>Licence/Passport</t>
-  </si>
-  <si>
     <t>YNAB</t>
   </si>
   <si>
     <t>Bag Sales</t>
   </si>
   <si>
-    <t>Vacation</t>
-  </si>
-  <si>
     <t>Computer &amp; Consoles</t>
   </si>
   <si>
-    <t>Dashlane</t>
-  </si>
-  <si>
     <t>Supertasas</t>
   </si>
   <si>
@@ -122,6 +95,27 @@
   </si>
   <si>
     <t>Max</t>
+  </si>
+  <si>
+    <t>Boda</t>
+  </si>
+  <si>
+    <t>superPhone</t>
+  </si>
+  <si>
+    <t>Next Months [1/3]</t>
+  </si>
+  <si>
+    <t>Next Months [2/3]</t>
+  </si>
+  <si>
+    <t>Next Months [3/3]</t>
+  </si>
+  <si>
+    <t>Medical</t>
+  </si>
+  <si>
+    <t>Licence</t>
   </si>
 </sst>
 </file>
@@ -248,8 +242,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F1D7DB0B-D8E0-436F-A28A-C764DE4129AF}" name="Table1" displayName="Table1" ref="A1:C17" totalsRowShown="0">
-  <autoFilter ref="A1:C17" xr:uid="{3D2E27AB-FE5B-4A5A-97F9-DC95A8BCD3DC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F1D7DB0B-D8E0-436F-A28A-C764DE4129AF}" name="Table1" displayName="Table1" ref="A1:C15" totalsRowShown="0">
+  <autoFilter ref="A1:C15" xr:uid="{3D2E27AB-FE5B-4A5A-97F9-DC95A8BCD3DC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C17">
     <sortCondition ref="C1:C17"/>
   </sortState>
@@ -586,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19CBCD4-7DC9-4C99-A504-648E07404628}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -600,13 +594,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -614,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>35184.43</v>
+        <v>18440.400000000001</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -622,7 +616,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2">
         <v>2600</v>
@@ -633,32 +627,32 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1">
-        <v>34164.65</v>
+        <v>20239.990000000002</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1">
-        <v>15000</v>
+        <v>4037.83</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1">
-        <v>20837.59</v>
+        <v>15000</v>
       </c>
       <c r="C6">
         <v>28</v>
@@ -666,10 +660,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="C7">
         <v>60</v>
@@ -677,10 +671,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1">
-        <v>17833.25</v>
+        <v>12812.98</v>
       </c>
       <c r="C8">
         <v>90</v>
@@ -688,7 +682,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1">
         <v>39371.69</v>
@@ -699,57 +693,57 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2">
-        <v>4500</v>
+        <v>11104.33</v>
       </c>
       <c r="C10">
-        <v>90</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2">
         <v>5250</v>
       </c>
       <c r="C11">
-        <v>90</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B12" s="2">
-        <v>3000</v>
+        <v>3275.01</v>
       </c>
       <c r="C12">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B13" s="2">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="C13">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B14" s="2">
         <v>1200</v>
       </c>
       <c r="C14">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -757,32 +751,10 @@
         <v>9</v>
       </c>
       <c r="B15" s="1">
-        <v>2137.46</v>
+        <v>14445.25</v>
       </c>
       <c r="C15">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="1">
-        <v>3275</v>
-      </c>
-      <c r="C16">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="2">
-        <v>429</v>
-      </c>
-      <c r="C17">
-        <v>360</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -809,18 +781,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -831,7 +803,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>28</v>
@@ -842,7 +814,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>60</v>
@@ -853,7 +825,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>90</v>
@@ -864,7 +836,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>180</v>
@@ -875,7 +847,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>270</v>
@@ -886,7 +858,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>360</v>
@@ -897,7 +869,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -908,7 +880,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>14</v>
@@ -919,7 +891,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>28</v>
@@ -930,7 +902,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>60</v>
@@ -941,7 +913,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>90</v>
@@ -952,7 +924,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>120</v>
@@ -963,7 +935,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>150</v>
@@ -974,7 +946,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>180</v>
@@ -985,7 +957,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>210</v>
@@ -996,7 +968,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>240</v>
@@ -1007,7 +979,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B19">
         <v>270</v>
@@ -1018,7 +990,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B20">
         <v>300</v>
@@ -1029,7 +1001,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B21">
         <v>330</v>
@@ -1040,7 +1012,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B22">
         <v>360</v>
@@ -1051,7 +1023,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1062,7 +1034,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B24">
         <v>90</v>
@@ -1073,7 +1045,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B25">
         <v>180</v>
@@ -1084,7 +1056,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B26">
         <v>360</v>
@@ -1105,7 +1077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B94821-9FC4-4078-94AE-574E6CFCD208}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1118,18 +1090,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
@@ -1140,7 +1112,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B3" s="6">
         <v>1</v>
@@ -1151,7 +1123,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B4" s="6">
         <v>1</v>
@@ -1162,7 +1134,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B5" s="6">
         <v>1</v>

--- a/src/main/resources/data.xlsx
+++ b/src/main/resources/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ae_hu\Documents\GitHub\opt01\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FA97D4-1899-4792-8A6B-3DB2BB19B3B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D32E30-3BC6-4378-AA5E-6F5653CE6D36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="14020" xr2:uid="{CBAB1C0D-D8C7-4D35-B05F-CB85A715296F}"/>
+    <workbookView xWindow="2570" yWindow="320" windowWidth="15560" windowHeight="13480" xr2:uid="{CBAB1C0D-D8C7-4D35-B05F-CB85A715296F}"/>
   </bookViews>
   <sheets>
     <sheet name="Needs" sheetId="1" r:id="rId1"/>
@@ -208,6 +208,9 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
+      <numFmt numFmtId="10" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -224,9 +227,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="10" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -249,7 +249,7 @@
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{17164D0F-97F3-489B-9667-0F3C4B8C7F66}" name="Expense"/>
-    <tableColumn id="2" xr3:uid="{27F23D7A-E995-49FD-B4A0-E8EAD0C079C8}" name="Amount" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{27F23D7A-E995-49FD-B4A0-E8EAD0C079C8}" name="Amount" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{72176CEF-F6E8-49F7-AA69-77166D06A457}" name="Term"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -265,7 +265,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{B0B46648-06A9-47A9-B194-CAA71BC74E28}" name="Inversion"/>
     <tableColumn id="2" xr3:uid="{6E83932B-E5AE-450C-B8D6-3FB39B7D1B65}" name="Plazo"/>
-    <tableColumn id="3" xr3:uid="{0A973456-F004-49D7-99C0-4EAEE0EDC116}" name="Tasa" dataDxfId="0" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{0A973456-F004-49D7-99C0-4EAEE0EDC116}" name="Tasa" dataDxfId="1" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -583,7 +583,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>18440.400000000001</v>
+        <v>8500</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -619,7 +619,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="2">
-        <v>2600</v>
+        <v>2100</v>
       </c>
       <c r="C3">
         <v>7</v>
@@ -674,7 +674,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="1">
-        <v>12812.98</v>
+        <v>20000</v>
       </c>
       <c r="C8">
         <v>90</v>
@@ -688,7 +688,7 @@
         <v>39371.69</v>
       </c>
       <c r="C9">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -721,7 +721,7 @@
         <v>3275.01</v>
       </c>
       <c r="C12">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -743,7 +743,7 @@
         <v>1200</v>
       </c>
       <c r="C14">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
